--- a/console/Networking/iaas-network/aclMixinsXlsx/detail.xlsx
+++ b/console/Networking/iaas-network/aclMixinsXlsx/detail.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\han\Desktop\京东云-返工\18. ACL国际化内容翻译确认\4. 确认后-柴玉梅\2. 客户确认后-上传Github版\ACL国际化内容翻译确认-CT-C-GTCOM Comment1106-R\aclMixinsXlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterate="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -420,18 +425,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>所属网络</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>detail_i18nKey_18</t>
     </r>
   </si>
@@ -516,18 +509,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>由于网络 ACL 是无状态的，因此您必须同时创建</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>detail_i18nKey_22</t>
     </r>
   </si>
@@ -996,18 +977,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'删除公网IP成功</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Operations </t>
     </r>
   </si>
@@ -1020,18 +989,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>‘Failed to delete, please disassociate subnet first’</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Delete</t>
     </r>
   </si>
@@ -1164,18 +1121,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Hosting VPC</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Creation Time</t>
     </r>
   </si>
@@ -1212,18 +1157,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>You have to create it simultaneously, because network ACL is stateless.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Save</t>
     </r>
   </si>
@@ -1260,18 +1193,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Name cannot be blank</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>The name length cannot exceed 32 characters</t>
     </r>
   </si>
@@ -1284,31 +1205,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Name only supports Chinese, numbers, capital and lowercase letters, English underline “_” and hyphen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Description length cannot exceed 256 characters</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Name only supports Chinese, numbers, capital and lowercase letters and English underline “_”</t>
     </r>
   </si>
   <si>
@@ -1356,10 +1253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>‘Deleted Public IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Modify name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1394,13 +1287,221 @@
   <si>
     <t xml:space="preserve">‘Modified ACL description </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>‘Failed to delete, please disassociate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the ACL from the subnet fi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rst’</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>You have to create XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inbound rules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>outbound rules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> simultaneously, because network ACL is stateless</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>由于网络</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ACL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是无状态的，因此您必须同时创建</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>删除公网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>成功</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name cannot be null</t>
+  </si>
+  <si>
+    <t>Name only supports Chinese characters, numbers, capital and lowercase letters, English underline “_” and hyphen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name only supports Chinese characters, numbers, capital and lowercase letters and English underline “_”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Public IP deleted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1410,6 +1511,29 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1436,8 +1560,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1779,473 +1915,474 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1"/>
-    <col min="3" max="3" width="76.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="C41" s="2" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B41" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B16 A18:B20 A17 A22:B40 A21 A41" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>